--- a/biology/Botanique/Châtaigniers_de_Tournebride/Châtaigniers_de_Tournebride.xlsx
+++ b/biology/Botanique/Châtaigniers_de_Tournebride/Châtaigniers_de_Tournebride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2taigniers_de_Tournebride</t>
+          <t>Châtaigniers_de_Tournebride</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les châtaigniers de Tournebride sont des arbres séculaires qui se trouvent dans le bois du Tournebride à La Celle-Saint-Cloud dans le département des Yvelines (France).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2taigniers_de_Tournebride</t>
+          <t>Châtaigniers_de_Tournebride</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces arbres ont reçu en janvier 2006 le label « arbre remarquable de France » attribué par l'association A.R.B.R.E.S. (Arbres remarquables, bilan, recherches, études et sauvegarde).
-En 1865, Alfred Sisley peint dans les bois de La Celle-Saint-Cloud Allée de châtaigniers à La Celle-Saint-Cloud qu'il envisagea vraisemblablement d'exposer au Salon de Paris en 1867 (aujourd'hui au Musée du Petit Palais à Paris) avec Bazille, sa première toile répertoriée peinte sur le motif. Il en réalisera au moins 2 autres sur ce sujet, dont la même année, une toile variante portant le même titre, aujourd'hui à l'Ordrupgaard museum de Copenhague et en 1867 Allée de châtaigniers près de La Celle Saint-Cloud, exposé au Salon de Paris en 1868, aujourd'hui à la Southampton City Art Gallery (en)[1].
+En 1865, Alfred Sisley peint dans les bois de La Celle-Saint-Cloud Allée de châtaigniers à La Celle-Saint-Cloud qu'il envisagea vraisemblablement d'exposer au Salon de Paris en 1867 (aujourd'hui au Musée du Petit Palais à Paris) avec Bazille, sa première toile répertoriée peinte sur le motif. Il en réalisera au moins 2 autres sur ce sujet, dont la même année, une toile variante portant le même titre, aujourd'hui à l'Ordrupgaard museum de Copenhague et en 1867 Allée de châtaigniers près de La Celle Saint-Cloud, exposé au Salon de Paris en 1868, aujourd'hui à la Southampton City Art Gallery (en).
 Paul Morand (1888-1976), écrivain et grand voyageur, notait aussi : « La Celle Saint-Cloud est un endroit admirable. Les châtaigniers y sont plus beaux qu'en Corse, en Ardèche. »
 </t>
         </is>
